--- a/salidas/prediccion.xlsx
+++ b/salidas/prediccion.xlsx
@@ -30109,7 +30109,7 @@
         <v>2697</v>
       </c>
       <c r="C2698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2699">

--- a/salidas/prediccion.xlsx
+++ b/salidas/prediccion.xlsx
@@ -12960,7 +12960,7 @@
         <v>1138</v>
       </c>
       <c r="C1139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140">
@@ -29130,7 +29130,7 @@
         <v>2608</v>
       </c>
       <c r="C2609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2610">
@@ -30109,7 +30109,7 @@
         <v>2697</v>
       </c>
       <c r="C2698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2699">
@@ -45300,7 +45300,7 @@
         <v>4078</v>
       </c>
       <c r="C4079" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4080">
